--- a/economics/lab1/main.xlsx
+++ b/economics/lab1/main.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Введено ОПФ, т.р.</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>после перевооружения</t>
+  </si>
+  <si>
+    <t>Изменение объёма производства продукции за счёт изменения</t>
+  </si>
+  <si>
+    <t>уровня фондоотдачи</t>
+  </si>
+  <si>
+    <t>среднегодовой стоимости ОПФ</t>
   </si>
 </sst>
 </file>
@@ -306,21 +315,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,19 +328,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +718,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -738,23 +747,23 @@
         <f>C1*D1</f>
         <v>336</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="N1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="N1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="13"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -768,23 +777,23 @@
         <f t="shared" ref="E2:E3" si="0">C2*D2</f>
         <v>240</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -798,28 +807,28 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <f>H4+SUM(E1:E3)/12-SUM(E4:E6)/12</f>
         <v>437.5</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="N3" s="14" t="s">
+      <c r="I3" s="5"/>
+      <c r="N3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="6">
         <f>B7</f>
         <v>426</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="6">
         <f>H3</f>
         <v>437.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -835,25 +844,25 @@
         <f>C4*D4</f>
         <v>200</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <f>B8/B9</f>
         <v>405</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="N4" s="14" t="s">
+      <c r="I4" s="5"/>
+      <c r="N4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6">
         <f>H5</f>
         <v>0.23678646934460887</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -867,25 +876,25 @@
         <f t="shared" ref="E5:E6" si="1">C5*D5</f>
         <v>126</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="5">
         <f>SUM(C1:C3)/H6</f>
         <v>0.23678646934460887</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="N5" s="14" t="s">
+      <c r="I5" s="5"/>
+      <c r="N5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
         <f>H7</f>
         <v>0.10864197530864197</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -899,19 +908,19 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <f>H4+SUM(C1:C3)-SUM(C4:C6)</f>
         <v>473</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="N6" s="14" t="s">
+      <c r="I6" s="5"/>
+      <c r="N6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6">
         <f>H8</f>
         <v>0.14376321353065538</v>
       </c>
@@ -923,22 +932,22 @@
       <c r="B7">
         <v>426</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="5">
         <f>SUM(C4:C6)/H4</f>
         <v>0.10864197530864197</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="N7" s="14" t="s">
+      <c r="I7" s="5"/>
+      <c r="N7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="6">
         <f>H9</f>
         <v>1.3145539906103287</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="6">
         <f>I9</f>
         <v>1.6457142857142857</v>
       </c>
@@ -950,22 +959,22 @@
       <c r="B8">
         <v>162</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="5">
         <f>(SUM(C1:C3)-SUM(C4:C6))/(H4+SUM(C1:C3)-SUM(C4:C6))</f>
         <v>0.14376321353065538</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="N8" s="14" t="s">
+      <c r="I8" s="5"/>
+      <c r="N8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="6">
         <f>H10</f>
         <v>0.76071428571428568</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="6">
         <f>I10</f>
         <v>0.60763888888888884</v>
       </c>
@@ -977,22 +986,22 @@
       <c r="B9">
         <v>0.4</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="5">
         <f>B10/B7</f>
         <v>1.3145539906103287</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="5">
         <f>C10/H3</f>
         <v>1.6457142857142857</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1004,70 +1013,70 @@
       <c r="C10">
         <v>720</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <f>B7/B10</f>
         <v>0.76071428571428568</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <f>H3/C10</f>
         <v>0.60763888888888884</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="11">
+      <c r="O10" s="7"/>
+      <c r="P10" s="6">
         <f>H11</f>
         <v>0.50969190417721144</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="39" x14ac:dyDescent="0.25">
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="5">
         <f>B15/H12</f>
         <v>0.50969190417721144</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <f>C15/I12</f>
         <v>0.65469439402469987</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="11">
+      <c r="O11" s="7"/>
+      <c r="P11" s="6">
         <f>I11</f>
         <v>0.65469439402469987</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="5">
         <f>H13*B13</f>
         <v>151972.19999999998</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="5">
         <f>I13*C13</f>
         <v>165802.54999999999</v>
       </c>
-      <c r="N12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
+      <c r="N12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1079,22 +1088,22 @@
       <c r="C13">
         <v>95</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="5">
         <f>H14*(1-(0.015*5+0.02*(B14-10)))</f>
         <v>1688.58</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="5">
         <f>I14*(1-(0.015*(C14-5)))</f>
         <v>1745.29</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="11">
+      <c r="N13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6">
         <f>H15</f>
         <v>15.11737089201878</v>
       </c>
@@ -1109,22 +1118,22 @@
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="5">
         <f>B16*8*(1-B17)</f>
         <v>1908</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="5">
         <f>C16*8*(1-C17)</f>
         <v>1886.8</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="11">
+      <c r="N14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="6">
         <f>I15</f>
         <v>144.88262910798116</v>
       </c>
@@ -1139,14 +1148,14 @@
       <c r="C15">
         <v>108550</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="5">
         <f>(H3-B7)*H9</f>
         <v>15.11737089201878</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="5">
         <f>(I9-H9)*H3</f>
         <v>144.88262910798116</v>
       </c>
@@ -1197,7 +1206,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1230,7 @@
       <c r="B1">
         <v>412</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -1233,18 +1242,18 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="15"/>
+      <c r="M1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="6"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1253,7 +1262,7 @@
       <c r="B2">
         <v>158</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="13"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -1266,8 +1275,8 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
       <c r="O2" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1291,7 @@
       <c r="B3">
         <v>0.4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="13"/>
       <c r="E3" t="s">
         <v>3</v>
       </c>
@@ -1298,10 +1307,10 @@
       <c r="K3">
         <v>720</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="16"/>
       <c r="O3">
         <v>412</v>
       </c>
@@ -1310,7 +1319,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
@@ -1328,16 +1337,16 @@
       <c r="K4">
         <v>95</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="16"/>
       <c r="P4">
         <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
+      <c r="D5" s="13"/>
       <c r="E5" t="s">
         <v>6</v>
       </c>
@@ -1353,16 +1362,16 @@
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="16"/>
       <c r="P5">
         <v>0.111</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
+      <c r="D6" s="13"/>
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -1378,10 +1387,10 @@
       <c r="K6">
         <v>108550</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="16"/>
       <c r="P6">
         <v>0.14699999999999999</v>
       </c>
@@ -1396,10 +1405,10 @@
       <c r="K7">
         <v>265</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="16"/>
       <c r="O7">
         <v>1.359</v>
       </c>
@@ -1417,10 +1426,10 @@
       <c r="K8" s="2">
         <v>0.11</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="16"/>
       <c r="O8">
         <v>0.73599999999999999</v>
       </c>
@@ -1429,7 +1438,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="N9" t="s">
@@ -1440,7 +1449,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M10" s="5"/>
+      <c r="M10" s="17"/>
       <c r="N10" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1458,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
@@ -1460,7 +1469,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="5"/>
+      <c r="M12" s="17"/>
       <c r="N12" t="s">
         <v>42</v>
       </c>
@@ -1470,6 +1479,10 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="J1:K1"/>
@@ -1479,10 +1492,6 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/economics/lab1/main.xlsx
+++ b/economics/lab1/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -349,17 +349,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -429,9 +430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,9 +470,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +507,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -717,20 +718,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -762,7 +763,7 @@
       </c>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>2</v>
@@ -792,7 +793,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>3</v>
@@ -827,7 +828,7 @@
         <v>437.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -861,7 +862,7 @@
         <v>0.23678646934460887</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>6</v>
@@ -893,7 +894,7 @@
         <v>0.10864197530864197</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>7</v>
@@ -925,7 +926,7 @@
         <v>0.14376321353065538</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -952,7 +953,7 @@
         <v>1.6457142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -979,7 +980,7 @@
         <v>0.60763888888888884</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1004,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1030,20 +1031,20 @@
       <c r="O10" s="7"/>
       <c r="P10" s="6">
         <f>H11</f>
-        <v>0.50969190417721144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+        <v>0.4157394794440849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="G11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="5">
         <f>B15/H12</f>
-        <v>0.50969190417721144</v>
+        <v>0.4157394794440849</v>
       </c>
       <c r="I11" s="5">
         <f>C15/I12</f>
-        <v>0.65469439402469987</v>
+        <v>0.5753846218269334</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>58</v>
@@ -1051,10 +1052,10 @@
       <c r="O11" s="7"/>
       <c r="P11" s="6">
         <f>I11</f>
-        <v>0.65469439402469987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>0.5753846218269334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1066,11 +1067,11 @@
       </c>
       <c r="H12" s="5">
         <f>H13*B13</f>
-        <v>151972.19999999998</v>
+        <v>186316.19999999998</v>
       </c>
       <c r="I12" s="5">
         <f>I13*C13</f>
-        <v>165802.54999999999</v>
+        <v>188656.41500000001</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>59</v>
@@ -1078,7 +1079,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1093,11 +1094,11 @@
       </c>
       <c r="H13" s="5">
         <f>H14*(1-(0.015*5+0.02*(B14-10)))</f>
-        <v>1688.58</v>
+        <v>2070.1799999999998</v>
       </c>
       <c r="I13" s="5">
         <f>I14*(1-(0.015*(C14-5)))</f>
-        <v>1745.29</v>
+        <v>1985.857</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>61</v>
@@ -1108,15 +1109,15 @@
         <v>15.11737089201878</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.5</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>56</v>
@@ -1138,7 +1139,7 @@
         <v>144.88262910798116</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>144.88262910798116</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1209,21 +1210,21 @@
       <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1242,20 +1243,20 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="17"/>
       <c r="M1" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N1" s="13"/>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1307,10 +1308,10 @@
       <c r="K3">
         <v>720</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="15"/>
       <c r="O3">
         <v>412</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>427.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1337,15 +1338,15 @@
       <c r="K4">
         <v>95</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="15"/>
       <c r="P4">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D5" s="13"/>
       <c r="E5" t="s">
         <v>6</v>
@@ -1362,15 +1363,15 @@
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="15"/>
       <c r="P5">
         <v>0.111</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D6" s="13"/>
       <c r="E6" t="s">
         <v>7</v>
@@ -1387,15 +1388,15 @@
       <c r="K6">
         <v>108550</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="15"/>
       <c r="P6">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>28</v>
       </c>
@@ -1405,10 +1406,10 @@
       <c r="K7">
         <v>265</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="15"/>
       <c r="O7">
         <v>1.359</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
         <v>29</v>
       </c>
@@ -1426,10 +1427,10 @@
       <c r="K8" s="2">
         <v>0.11</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="15"/>
       <c r="O8">
         <v>0.73599999999999999</v>
       </c>
@@ -1437,8 +1438,8 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="17" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="N9" t="s">
@@ -1448,8 +1449,8 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M10" s="17"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M10" s="16"/>
       <c r="N10" t="s">
         <v>14</v>
       </c>
@@ -1457,8 +1458,8 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="17" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
@@ -1468,8 +1469,8 @@
         <v>21.068000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="17"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M12" s="16"/>
       <c r="N12" t="s">
         <v>42</v>
       </c>
@@ -1479,6 +1480,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:M10"/>
@@ -1486,11 +1492,6 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
